--- a/Validation Results.xlsx
+++ b/Validation Results.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Biology" sheetId="1" state="visible" r:id="rId1"/>
@@ -18,7 +18,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -32,6 +32,20 @@
       <b val="1"/>
       <color theme="1"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="3" tint="0.3999755851924192"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <sz val="8"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -49,7 +63,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -72,13 +86,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -159,9 +190,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -199,7 +230,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -233,6 +264,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -267,9 +299,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -447,13 +480,28 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:P101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="5.140625" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="5.28515625" bestFit="1" customWidth="1" min="2" max="3"/>
+    <col width="8.140625" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="38.42578125" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="33" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="21" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="14.7109375" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="17.28515625" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="33" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="70.7109375" bestFit="1" customWidth="1" min="11" max="11"/>
+    <col width="7.7109375" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="15.85546875" bestFit="1" customWidth="1" min="13" max="13"/>
+    <col width="12.5703125" bestFit="1" customWidth="1" min="16" max="16"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -516,14 +564,24 @@
           <t>level</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>subcategory</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
+      <c r="M1" s="2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="inlineStr">
         <is>
           <t>Comment</t>
+        </is>
+      </c>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>PYQ-Year</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="inlineStr">
+        <is>
+          <t>Resource Link</t>
         </is>
       </c>
     </row>
@@ -583,6 +641,14 @@
           <t>Valid Question</t>
         </is>
       </c>
+      <c r="O2" t="n">
+        <v>2011</v>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -640,57 +706,65 @@
           <t>Valid Question</t>
         </is>
       </c>
+      <c r="O3" t="n">
+        <v>2012</v>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>MCQ</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="n"/>
-      <c r="C4" s="2" t="n"/>
-      <c r="D4" s="2" t="n"/>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="A4" s="4" t="inlineStr">
+        <is>
+          <t>MCQ</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="n"/>
+      <c r="C4" s="4" t="n"/>
+      <c r="D4" s="4" t="n"/>
+      <c r="E4" s="4" t="inlineStr">
         <is>
           <t>What is the role of hemoglobin?</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
+      <c r="F4" s="4" t="inlineStr">
         <is>
           <t>Oxygen transport</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
+      <c r="G4" s="4" t="inlineStr">
         <is>
           <t>Digestion</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
+      <c r="H4" s="4" t="inlineStr">
         <is>
           <t>Nerve function</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
+      <c r="I4" s="4" t="inlineStr">
         <is>
           <t>Hormonal secretion</t>
         </is>
       </c>
-      <c r="J4" s="2" t="inlineStr">
+      <c r="J4" s="4" t="inlineStr">
         <is>
           <t>Oxygen transport</t>
         </is>
       </c>
-      <c r="K4" s="2" t="inlineStr">
+      <c r="K4" s="4" t="inlineStr">
         <is>
           <t>Hemoglobin binds oxygen and transports it in the blood.</t>
         </is>
       </c>
-      <c r="L4" s="2" t="inlineStr">
+      <c r="L4" s="4" t="inlineStr">
         <is>
           <t>Medium</t>
         </is>
       </c>
-      <c r="M4" s="2" t="inlineStr">
+      <c r="M4" s="4" t="inlineStr">
         <is>
           <t>Plant Physiology</t>
         </is>
@@ -700,57 +774,65 @@
           <t>Invalid level</t>
         </is>
       </c>
+      <c r="O4" t="n">
+        <v>2013</v>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>MCQ</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="n"/>
-      <c r="C5" s="2" t="n"/>
-      <c r="D5" s="2" t="n"/>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>MCQ</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="n"/>
+      <c r="C5" s="4" t="n"/>
+      <c r="D5" s="4" t="n"/>
+      <c r="E5" s="4" t="inlineStr">
         <is>
           <t>What is the powerhouse of the cell?</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
+      <c r="F5" s="4" t="inlineStr">
         <is>
           <t>Mitochondria</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
+      <c r="G5" s="4" t="inlineStr">
         <is>
           <t>Nucleus</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
+      <c r="H5" s="4" t="inlineStr">
         <is>
           <t>Ribosome</t>
         </is>
       </c>
-      <c r="I5" s="2" t="inlineStr">
+      <c r="I5" s="4" t="inlineStr">
         <is>
           <t>Golgi body</t>
         </is>
       </c>
-      <c r="J5" s="2" t="inlineStr">
+      <c r="J5" s="4" t="inlineStr">
         <is>
           <t>Mitochondria</t>
         </is>
       </c>
-      <c r="K5" s="2" t="inlineStr">
+      <c r="K5" s="4" t="inlineStr">
         <is>
           <t>Mitochondria generate ATP, the energy currency of the cell.</t>
         </is>
       </c>
-      <c r="L5" s="2" t="inlineStr">
+      <c r="L5" s="4" t="inlineStr">
         <is>
           <t>Medium</t>
         </is>
       </c>
-      <c r="M5" s="2" t="inlineStr">
+      <c r="M5" s="4" t="inlineStr">
         <is>
           <t>Plant Physiology</t>
         </is>
@@ -758,6 +840,14 @@
       <c r="N5" t="inlineStr">
         <is>
           <t>Invalid level</t>
+        </is>
+      </c>
+      <c r="O5" t="n">
+        <v>2014</v>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>link</t>
         </is>
       </c>
     </row>
@@ -817,6 +907,14 @@
           <t>Valid Question</t>
         </is>
       </c>
+      <c r="O6" t="n">
+        <v>2015</v>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -874,6 +972,14 @@
           <t>Valid Question</t>
         </is>
       </c>
+      <c r="O7" t="n">
+        <v>2016</v>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -931,57 +1037,65 @@
           <t>Valid Question</t>
         </is>
       </c>
+      <c r="O8" t="n">
+        <v>2017</v>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="inlineStr">
-        <is>
-          <t>MCQ</t>
-        </is>
-      </c>
-      <c r="B9" s="2" t="n"/>
-      <c r="C9" s="2" t="n"/>
-      <c r="D9" s="2" t="n"/>
-      <c r="E9" s="2" t="inlineStr">
+      <c r="A9" s="4" t="inlineStr">
+        <is>
+          <t>MCQ</t>
+        </is>
+      </c>
+      <c r="B9" s="4" t="n"/>
+      <c r="C9" s="4" t="n"/>
+      <c r="D9" s="4" t="n"/>
+      <c r="E9" s="4" t="inlineStr">
         <is>
           <t>What is the speed of light?</t>
         </is>
       </c>
-      <c r="F9" s="2" t="inlineStr">
+      <c r="F9" s="4" t="inlineStr">
         <is>
           <t>3x10^8 m/s</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
+      <c r="G9" s="4" t="inlineStr">
         <is>
           <t>1x10^6 m/s</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
+      <c r="H9" s="4" t="inlineStr">
         <is>
           <t>2x10^8 m/s</t>
         </is>
       </c>
-      <c r="I9" s="2" t="inlineStr">
+      <c r="I9" s="4" t="inlineStr">
         <is>
           <t>5x10^7 m/s</t>
         </is>
       </c>
-      <c r="J9" s="2" t="inlineStr">
+      <c r="J9" s="4" t="inlineStr">
         <is>
           <t>3x10^8 m/s</t>
         </is>
       </c>
-      <c r="K9" s="2" t="inlineStr">
+      <c r="K9" s="4" t="inlineStr">
         <is>
           <t>The speed of light in a vacuum is approximately 3x10^8 m/s.</t>
         </is>
       </c>
-      <c r="L9" s="2" t="inlineStr">
+      <c r="L9" s="4" t="inlineStr">
         <is>
           <t>Medium</t>
         </is>
       </c>
-      <c r="M9" s="2" t="inlineStr">
+      <c r="M9" s="4" t="inlineStr">
         <is>
           <t>Plant Physiology</t>
         </is>
@@ -991,57 +1105,65 @@
           <t>Invalid level</t>
         </is>
       </c>
+      <c r="O9" t="n">
+        <v>2018</v>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="inlineStr">
-        <is>
-          <t>MCQ</t>
-        </is>
-      </c>
-      <c r="B10" s="2" t="n"/>
-      <c r="C10" s="2" t="n"/>
-      <c r="D10" s="2" t="n"/>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="A10" s="4" t="inlineStr">
+        <is>
+          <t>MCQ</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="n"/>
+      <c r="C10" s="4" t="n"/>
+      <c r="D10" s="4" t="n"/>
+      <c r="E10" s="4" t="inlineStr">
         <is>
           <t>What is the principle of a lever?</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
+      <c r="F10" s="4" t="inlineStr">
         <is>
           <t>Torque balance</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
+      <c r="G10" s="4" t="inlineStr">
         <is>
           <t>Pressure balance</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
+      <c r="H10" s="4" t="inlineStr">
         <is>
           <t>Voltage balance</t>
         </is>
       </c>
-      <c r="I10" s="2" t="inlineStr">
+      <c r="I10" s="4" t="inlineStr">
         <is>
           <t>Current balance</t>
         </is>
       </c>
-      <c r="J10" s="2" t="inlineStr">
+      <c r="J10" s="4" t="inlineStr">
         <is>
           <t>Torque balance</t>
         </is>
       </c>
-      <c r="K10" s="2" t="inlineStr">
+      <c r="K10" s="4" t="inlineStr">
         <is>
           <t>Levers operate on the principle of torque balance.</t>
         </is>
       </c>
-      <c r="L10" s="2" t="inlineStr">
+      <c r="L10" s="4" t="inlineStr">
         <is>
           <t>Medium</t>
         </is>
       </c>
-      <c r="M10" s="2" t="inlineStr">
+      <c r="M10" s="4" t="inlineStr">
         <is>
           <t>Plant Physiology</t>
         </is>
@@ -1049,6 +1171,14 @@
       <c r="N10" t="inlineStr">
         <is>
           <t>Invalid level</t>
+        </is>
+      </c>
+      <c r="O10" t="n">
+        <v>2019</v>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>link</t>
         </is>
       </c>
     </row>
@@ -1108,8 +1238,5806 @@
           <t>Valid Question</t>
         </is>
       </c>
-    </row>
-    <row r="12"/>
+      <c r="O11" t="n">
+        <v>2020</v>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>IMG</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://www.worksheetsplanet.com/wp-content/uploads/2024/01/Second-Newton-Law-1200x707.jpg</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>width added</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>opt1</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>opt2</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>opt4</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>explanation imagwe based</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>Img based</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Valid Question</t>
+        </is>
+      </c>
+      <c r="O12" t="n">
+        <v>2011</v>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>MCQ</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>biology-1</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>opt1</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>opt2</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>opt4</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">explanation </t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>Bio</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Valid Question</t>
+        </is>
+      </c>
+      <c r="O13" t="n">
+        <v>2024</v>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>MCQ</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>biology-2</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>opt1</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>opt2</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>opt4</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">explanation </t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>Bio</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Valid Question</t>
+        </is>
+      </c>
+      <c r="O14" t="n">
+        <v>2025</v>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>MCQ</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>biology-3</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>opt1</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>opt2</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>opt4</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">explanation </t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>Bio</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Valid Question</t>
+        </is>
+      </c>
+      <c r="O15" t="n">
+        <v>2026</v>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>MCQ</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>biology-4</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>opt1</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>opt2</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>opt4</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">explanation </t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>Bio</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>Valid Question</t>
+        </is>
+      </c>
+      <c r="O16" t="n">
+        <v>2027</v>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>MCQ</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>biology-5</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>opt1</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>opt2</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>opt4</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">explanation </t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>Bio</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>Valid Question</t>
+        </is>
+      </c>
+      <c r="O17" t="n">
+        <v>2028</v>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>MCQ</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>biology-6</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>opt1</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>opt2</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>opt4</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">explanation </t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>Bio</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>Valid Question</t>
+        </is>
+      </c>
+      <c r="O18" t="n">
+        <v>2029</v>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>MCQ</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>biology-7</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>opt1</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>opt2</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>opt4</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">explanation </t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>Bio</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>Valid Question</t>
+        </is>
+      </c>
+      <c r="O19" t="n">
+        <v>2030</v>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>MCQ</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>biology-8</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>opt1</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>opt2</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>opt4</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">explanation </t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>Bio</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>Valid Question</t>
+        </is>
+      </c>
+      <c r="O20" t="n">
+        <v>2031</v>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>MCQ</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>biology-9</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>opt1</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>opt2</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>opt4</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">explanation </t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>Bio</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>Valid Question</t>
+        </is>
+      </c>
+      <c r="O21" t="n">
+        <v>2032</v>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>MCQ</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>biology-10</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>opt1</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>opt2</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>opt4</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">explanation </t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>Bio</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>Valid Question</t>
+        </is>
+      </c>
+      <c r="O22" t="n">
+        <v>2033</v>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>MCQ</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>biology-11</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>opt1</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>opt2</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>opt4</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">explanation </t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>Bio</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>Valid Question</t>
+        </is>
+      </c>
+      <c r="O23" t="n">
+        <v>2034</v>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>MCQ</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>biology-12</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>opt1</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>opt2</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>opt4</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">explanation </t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>Bio</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>Valid Question</t>
+        </is>
+      </c>
+      <c r="O24" t="n">
+        <v>2035</v>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>MCQ</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>biology-13</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>opt1</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>opt2</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>opt4</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">explanation </t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>Bio</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>Valid Question</t>
+        </is>
+      </c>
+      <c r="O25" t="n">
+        <v>2036</v>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>MCQ</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>biology-14</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>opt1</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>opt2</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>opt4</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">explanation </t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>Bio</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>Valid Question</t>
+        </is>
+      </c>
+      <c r="O26" t="n">
+        <v>2037</v>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>MCQ</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>biology-15</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>opt1</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>opt2</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>opt4</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">explanation </t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>Bio</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>Valid Question</t>
+        </is>
+      </c>
+      <c r="O27" t="n">
+        <v>2038</v>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>MCQ</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>biology-16</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>opt1</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>opt2</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>opt4</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">explanation </t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>Bio</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>Valid Question</t>
+        </is>
+      </c>
+      <c r="O28" t="n">
+        <v>2039</v>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>MCQ</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>biology-17</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>opt1</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>opt2</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>opt4</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">explanation </t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>Bio</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>Valid Question</t>
+        </is>
+      </c>
+      <c r="O29" t="n">
+        <v>2040</v>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>MCQ</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>biology-18</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>opt1</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>opt2</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>opt4</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">explanation </t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>Bio</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>Valid Question</t>
+        </is>
+      </c>
+      <c r="O30" t="n">
+        <v>2041</v>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>MCQ</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>biology-19</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>opt1</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>opt2</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>opt4</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">explanation </t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>Bio</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>Valid Question</t>
+        </is>
+      </c>
+      <c r="O31" t="n">
+        <v>2042</v>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>MCQ</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>biology-20</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>opt1</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>opt2</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>opt4</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">explanation </t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>Bio</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>Valid Question</t>
+        </is>
+      </c>
+      <c r="O32" t="n">
+        <v>2043</v>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>MCQ</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>biology-21</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>opt1</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>opt2</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>opt4</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">explanation </t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>Bio</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>Valid Question</t>
+        </is>
+      </c>
+      <c r="O33" t="n">
+        <v>2044</v>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>MCQ</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>biology-22</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>opt1</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>opt2</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>opt4</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">explanation </t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>Bio</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>Valid Question</t>
+        </is>
+      </c>
+      <c r="O34" t="n">
+        <v>2045</v>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>MCQ</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>biology-23</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>opt1</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>opt2</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>opt4</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">explanation </t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>Bio</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>Valid Question</t>
+        </is>
+      </c>
+      <c r="O35" t="n">
+        <v>2046</v>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>MCQ</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>biology-24</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>opt1</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>opt2</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>opt4</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">explanation </t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>Bio</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>Valid Question</t>
+        </is>
+      </c>
+      <c r="O36" t="n">
+        <v>2047</v>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>MCQ</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>biology-25</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>opt1</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>opt2</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>opt4</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">explanation </t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>Bio</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>Valid Question</t>
+        </is>
+      </c>
+      <c r="O37" t="n">
+        <v>2048</v>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>MCQ</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>biology-26</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>opt1</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>opt2</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>opt4</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">explanation </t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>Bio</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>Valid Question</t>
+        </is>
+      </c>
+      <c r="O38" t="n">
+        <v>2049</v>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>MCQ</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>biology-27</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>opt1</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>opt2</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>opt4</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">explanation </t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>Bio</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>Valid Question</t>
+        </is>
+      </c>
+      <c r="O39" t="n">
+        <v>2050</v>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>MCQ</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>biology-28</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>opt1</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>opt2</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>opt4</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">explanation </t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>Bio</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>Valid Question</t>
+        </is>
+      </c>
+      <c r="O40" t="n">
+        <v>2051</v>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>MCQ</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>biology-29</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>opt1</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>opt2</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>opt4</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">explanation </t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>Bio</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>Valid Question</t>
+        </is>
+      </c>
+      <c r="O41" t="n">
+        <v>2052</v>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>MCQ</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>biology-30</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>opt1</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>opt2</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>opt4</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">explanation </t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>Bio</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>Valid Question</t>
+        </is>
+      </c>
+      <c r="O42" t="n">
+        <v>2053</v>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>MCQ</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>biology-31</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>opt1</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>opt2</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>opt4</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">explanation </t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>Bio</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>Valid Question</t>
+        </is>
+      </c>
+      <c r="O43" t="n">
+        <v>2054</v>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>MCQ</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>biology-32</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>opt1</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>opt2</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>opt4</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">explanation </t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>Bio</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>Valid Question</t>
+        </is>
+      </c>
+      <c r="O44" t="n">
+        <v>2055</v>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>MCQ</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>biology-33</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>opt1</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>opt2</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>opt4</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">explanation </t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>Bio</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>Valid Question</t>
+        </is>
+      </c>
+      <c r="O45" t="n">
+        <v>2056</v>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>MCQ</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>biology-34</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>opt1</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>opt2</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>opt4</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">explanation </t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>Bio</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>Valid Question</t>
+        </is>
+      </c>
+      <c r="O46" t="n">
+        <v>2057</v>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>MCQ</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>biology-35</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>opt1</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>opt2</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>opt4</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">explanation </t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>Bio</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>Valid Question</t>
+        </is>
+      </c>
+      <c r="O47" t="n">
+        <v>2058</v>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>MCQ</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>biology-36</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>opt1</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>opt2</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>opt4</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">explanation </t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>Bio</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>Valid Question</t>
+        </is>
+      </c>
+      <c r="O48" t="n">
+        <v>2059</v>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>MCQ</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>biology-37</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>opt1</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>opt2</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>opt4</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">explanation </t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>Bio</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>Valid Question</t>
+        </is>
+      </c>
+      <c r="O49" t="n">
+        <v>2060</v>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>MCQ</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>biology-38</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>opt1</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>opt2</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>opt4</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">explanation </t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>Bio</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>Valid Question</t>
+        </is>
+      </c>
+      <c r="O50" t="n">
+        <v>2061</v>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>MCQ</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>biology-39</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>opt1</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>opt2</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>opt4</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">explanation </t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>Bio</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>Valid Question</t>
+        </is>
+      </c>
+      <c r="O51" t="n">
+        <v>2062</v>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>MCQ</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>biology-40</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>opt1</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>opt2</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>opt4</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">explanation </t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>Bio</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>Valid Question</t>
+        </is>
+      </c>
+      <c r="O52" t="n">
+        <v>2063</v>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>MCQ</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>biology-41</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>opt1</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>opt2</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>opt4</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">explanation </t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>Bio</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>Valid Question</t>
+        </is>
+      </c>
+      <c r="O53" t="n">
+        <v>2064</v>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>MCQ</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>biology-42</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>opt1</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>opt2</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>opt4</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">explanation </t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>Bio</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>Valid Question</t>
+        </is>
+      </c>
+      <c r="O54" t="n">
+        <v>2065</v>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>MCQ</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>biology-43</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>opt1</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>opt2</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>opt4</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">explanation </t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>Bio</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>Valid Question</t>
+        </is>
+      </c>
+      <c r="O55" t="n">
+        <v>2066</v>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>MCQ</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>biology-44</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>opt1</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>opt2</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>opt4</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">explanation </t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>Bio</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>Valid Question</t>
+        </is>
+      </c>
+      <c r="O56" t="n">
+        <v>2067</v>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>MCQ</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>biology-45</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>opt1</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>opt2</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>opt4</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">explanation </t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>Bio</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>Valid Question</t>
+        </is>
+      </c>
+      <c r="O57" t="n">
+        <v>2068</v>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>MCQ</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>biology-46</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>opt1</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>opt2</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>opt4</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">explanation </t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>Bio</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>Valid Question</t>
+        </is>
+      </c>
+      <c r="O58" t="n">
+        <v>2069</v>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>MCQ</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>biology-47</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>opt1</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>opt2</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>opt4</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">explanation </t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>Bio</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>Valid Question</t>
+        </is>
+      </c>
+      <c r="O59" t="n">
+        <v>2070</v>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>MCQ</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>biology-48</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>opt1</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>opt2</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>opt4</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">explanation </t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>Bio</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>Valid Question</t>
+        </is>
+      </c>
+      <c r="O60" t="n">
+        <v>2071</v>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>MCQ</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>biology-49</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>opt1</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>opt2</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>opt4</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">explanation </t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>Bio</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>Valid Question</t>
+        </is>
+      </c>
+      <c r="O61" t="n">
+        <v>2072</v>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>MCQ</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>biology-50</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>opt1</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>opt2</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>opt4</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">explanation </t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>Bio</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>Valid Question</t>
+        </is>
+      </c>
+      <c r="O62" t="n">
+        <v>2073</v>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>MCQ</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>biology-51</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>opt1</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>opt2</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>opt4</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">explanation </t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>Bio</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>Valid Question</t>
+        </is>
+      </c>
+      <c r="O63" t="n">
+        <v>2074</v>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>MCQ</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>biology-52</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>opt1</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>opt2</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>opt4</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">explanation </t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>Bio</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>Valid Question</t>
+        </is>
+      </c>
+      <c r="O64" t="n">
+        <v>2075</v>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>MCQ</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>biology-53</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>opt1</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>opt2</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>opt4</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">explanation </t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>Bio</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>Valid Question</t>
+        </is>
+      </c>
+      <c r="O65" t="n">
+        <v>2076</v>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>MCQ</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>biology-54</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>opt1</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>opt2</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>opt4</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">explanation </t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>Bio</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>Valid Question</t>
+        </is>
+      </c>
+      <c r="O66" t="n">
+        <v>2077</v>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>MCQ</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>biology-55</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>opt1</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>opt2</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>opt4</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">explanation </t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>Bio</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>Valid Question</t>
+        </is>
+      </c>
+      <c r="O67" t="n">
+        <v>2078</v>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>MCQ</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>biology-56</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>opt1</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>opt2</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>opt4</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">explanation </t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>Bio</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>Valid Question</t>
+        </is>
+      </c>
+      <c r="O68" t="n">
+        <v>2079</v>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>MCQ</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>biology-57</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>opt1</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>opt2</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>opt4</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">explanation </t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>Bio</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>Valid Question</t>
+        </is>
+      </c>
+      <c r="O69" t="n">
+        <v>2080</v>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>MCQ</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>biology-58</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>opt1</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>opt2</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>opt4</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">explanation </t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>Bio</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>Valid Question</t>
+        </is>
+      </c>
+      <c r="O70" t="n">
+        <v>2081</v>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>MCQ</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>biology-59</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>opt1</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>opt2</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>opt4</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">explanation </t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>Bio</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>Valid Question</t>
+        </is>
+      </c>
+      <c r="O71" t="n">
+        <v>2082</v>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>MCQ</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>biology-60</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>opt1</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>opt2</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>opt4</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">explanation </t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>Bio</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>Valid Question</t>
+        </is>
+      </c>
+      <c r="O72" t="n">
+        <v>2083</v>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>MCQ</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>biology-61</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>opt1</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>opt2</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>opt4</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">explanation </t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>Bio</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>Valid Question</t>
+        </is>
+      </c>
+      <c r="O73" t="n">
+        <v>2084</v>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>MCQ</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>biology-62</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>opt1</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>opt2</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>opt4</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">explanation </t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>Bio</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>Valid Question</t>
+        </is>
+      </c>
+      <c r="O74" t="n">
+        <v>2085</v>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>MCQ</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>biology-63</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>opt1</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>opt2</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>opt4</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">explanation </t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>Bio</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>Valid Question</t>
+        </is>
+      </c>
+      <c r="O75" t="n">
+        <v>2086</v>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>MCQ</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>biology-64</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>opt1</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>opt2</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>opt4</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">explanation </t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>Bio</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>Valid Question</t>
+        </is>
+      </c>
+      <c r="O76" t="n">
+        <v>2087</v>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>MCQ</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>biology-65</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>opt1</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>opt2</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>opt4</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">explanation </t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>Bio</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>Valid Question</t>
+        </is>
+      </c>
+      <c r="O77" t="n">
+        <v>2088</v>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>MCQ</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>biology-66</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>opt1</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>opt2</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>opt4</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">explanation </t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>Bio</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>Valid Question</t>
+        </is>
+      </c>
+      <c r="O78" t="n">
+        <v>2089</v>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>MCQ</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>biology-67</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>opt1</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>opt2</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>opt4</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">explanation </t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>Bio</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>Valid Question</t>
+        </is>
+      </c>
+      <c r="O79" t="n">
+        <v>2090</v>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>MCQ</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>biology-68</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>opt1</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>opt2</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>opt4</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">explanation </t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>Bio</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>Valid Question</t>
+        </is>
+      </c>
+      <c r="O80" t="n">
+        <v>2091</v>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>MCQ</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>biology-69</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>opt1</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>opt2</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>opt4</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">explanation </t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>Bio</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>Valid Question</t>
+        </is>
+      </c>
+      <c r="O81" t="n">
+        <v>2092</v>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>MCQ</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>biology-70</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>opt1</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>opt2</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>opt4</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">explanation </t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>Bio</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>Valid Question</t>
+        </is>
+      </c>
+      <c r="O82" t="n">
+        <v>2093</v>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>MCQ</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>biology-71</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>opt1</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>opt2</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>opt4</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">explanation </t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>Bio</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>Valid Question</t>
+        </is>
+      </c>
+      <c r="O83" t="n">
+        <v>2094</v>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>MCQ</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>biology-72</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>opt1</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>opt2</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>opt4</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">explanation </t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>Bio</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>Valid Question</t>
+        </is>
+      </c>
+      <c r="O84" t="n">
+        <v>2095</v>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>MCQ</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>biology-73</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>opt1</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>opt2</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>opt4</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">explanation </t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>Bio</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>Valid Question</t>
+        </is>
+      </c>
+      <c r="O85" t="n">
+        <v>2096</v>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>MCQ</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>biology-74</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>opt1</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>opt2</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>opt4</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">explanation </t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>Bio</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>Valid Question</t>
+        </is>
+      </c>
+      <c r="O86" t="n">
+        <v>2097</v>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>MCQ</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>biology-75</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>opt1</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>opt2</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>opt4</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">explanation </t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>Bio</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>Valid Question</t>
+        </is>
+      </c>
+      <c r="O87" t="n">
+        <v>2098</v>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>MCQ</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>biology-76</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>opt1</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>opt2</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>opt4</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">explanation </t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>Bio</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>Valid Question</t>
+        </is>
+      </c>
+      <c r="O88" t="n">
+        <v>2099</v>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>MCQ</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>biology-77</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>opt1</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>opt2</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>opt4</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">explanation </t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>Bio</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>Valid Question</t>
+        </is>
+      </c>
+      <c r="O89" t="n">
+        <v>2100</v>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>MCQ</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>biology-78</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>opt1</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>opt2</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>opt4</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">explanation </t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>Bio</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>Valid Question</t>
+        </is>
+      </c>
+      <c r="O90" t="n">
+        <v>2101</v>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>MCQ</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>biology-79</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>opt1</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>opt2</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>opt4</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">explanation </t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>Bio</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>Valid Question</t>
+        </is>
+      </c>
+      <c r="O91" t="n">
+        <v>2102</v>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>MCQ</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>biology-80</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>opt1</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>opt2</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>opt4</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">explanation </t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>Bio</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>Valid Question</t>
+        </is>
+      </c>
+      <c r="O92" t="n">
+        <v>2103</v>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>MCQ</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>biology-81</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>opt1</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>opt2</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>opt4</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">explanation </t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>Bio</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>Valid Question</t>
+        </is>
+      </c>
+      <c r="O93" t="n">
+        <v>2104</v>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>MCQ</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>biology-82</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>opt1</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>opt2</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>opt4</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">explanation </t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>Bio</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>Valid Question</t>
+        </is>
+      </c>
+      <c r="O94" t="n">
+        <v>2105</v>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>MCQ</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>biology-83</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>opt1</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>opt2</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>opt4</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">explanation </t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>Bio</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>Valid Question</t>
+        </is>
+      </c>
+      <c r="O95" t="n">
+        <v>2106</v>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>MCQ</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>biology-84</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>opt1</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>opt2</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>opt4</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">explanation </t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>Bio</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>Valid Question</t>
+        </is>
+      </c>
+      <c r="O96" t="n">
+        <v>2107</v>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>MCQ</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>biology-85</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>opt1</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>opt2</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>opt4</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">explanation </t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>Bio</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>Valid Question</t>
+        </is>
+      </c>
+      <c r="O97" t="n">
+        <v>2108</v>
+      </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>MCQ</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>biology-86</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>opt1</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>opt2</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>opt4</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">explanation </t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>Bio</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>Valid Question</t>
+        </is>
+      </c>
+      <c r="O98" t="n">
+        <v>2109</v>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>MCQ</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>biology-87</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>opt1</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>opt2</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>opt4</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">explanation </t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>Bio</t>
+        </is>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>Valid Question</t>
+        </is>
+      </c>
+      <c r="O99" t="n">
+        <v>2110</v>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>MCQ</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>biology-88</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>opt1</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>opt2</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>opt4</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>opt3</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">explanation </t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>Bio</t>
+        </is>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>Valid Question</t>
+        </is>
+      </c>
+      <c r="O100" t="n">
+        <v>2111</v>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+    </row>
+    <row r="101"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1121,10 +7049,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="M1" sqref="M1:P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -1190,14 +7118,24 @@
           <t>level</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>subcategory</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
+      <c r="M1" s="2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="inlineStr">
         <is>
           <t>Comment</t>
+        </is>
+      </c>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>PYQ-Year</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="inlineStr">
+        <is>
+          <t>Resource Link</t>
         </is>
       </c>
     </row>
@@ -1316,55 +7254,55 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>MCQ</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="n"/>
-      <c r="C4" s="2" t="n"/>
-      <c r="D4" s="2" t="n"/>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="A4" s="4" t="inlineStr">
+        <is>
+          <t>MCQ</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="n"/>
+      <c r="C4" s="4" t="n"/>
+      <c r="D4" s="4" t="n"/>
+      <c r="E4" s="4" t="inlineStr">
         <is>
           <t>What is Avogadro's number?</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
+      <c r="F4" s="4" t="inlineStr">
         <is>
           <t>6.022x10^23</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
+      <c r="G4" s="4" t="inlineStr">
         <is>
           <t>1.602x10^-19</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
+      <c r="H4" s="4" t="inlineStr">
         <is>
           <t>3.14</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
+      <c r="I4" s="4" t="inlineStr">
         <is>
           <t>2.718</t>
         </is>
       </c>
-      <c r="J4" s="2" t="inlineStr">
+      <c r="J4" s="4" t="inlineStr">
         <is>
           <t>6.022x10^23</t>
         </is>
       </c>
-      <c r="K4" s="2" t="inlineStr">
+      <c r="K4" s="4" t="inlineStr">
         <is>
           <t>Avogadro's number represents the number of particles in one mole of a substance.</t>
         </is>
       </c>
-      <c r="L4" s="2" t="inlineStr">
+      <c r="L4" s="4" t="inlineStr">
         <is>
           <t>Medium</t>
         </is>
       </c>
-      <c r="M4" s="2" t="inlineStr">
+      <c r="M4" s="4" t="inlineStr">
         <is>
           <t>Electricity and Magnetism</t>
         </is>
@@ -1376,55 +7314,55 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>MCQ</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="n"/>
-      <c r="C5" s="2" t="n"/>
-      <c r="D5" s="2" t="n"/>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>MCQ</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="n"/>
+      <c r="C5" s="4" t="n"/>
+      <c r="D5" s="4" t="n"/>
+      <c r="E5" s="4" t="inlineStr">
         <is>
           <t>What is the periodic table?</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
+      <c r="F5" s="4" t="inlineStr">
         <is>
           <t>Arrangement of elements</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
+      <c r="G5" s="4" t="inlineStr">
         <is>
           <t>Table of compounds</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
+      <c r="H5" s="4" t="inlineStr">
         <is>
           <t>Chart of mixtures</t>
         </is>
       </c>
-      <c r="I5" s="2" t="inlineStr">
+      <c r="I5" s="4" t="inlineStr">
         <is>
           <t>None of these</t>
         </is>
       </c>
-      <c r="J5" s="2" t="inlineStr">
+      <c r="J5" s="4" t="inlineStr">
         <is>
           <t>Arrangement of elements</t>
         </is>
       </c>
-      <c r="K5" s="2" t="inlineStr">
+      <c r="K5" s="4" t="inlineStr">
         <is>
           <t>The periodic table organizes elements based on atomic number and properties.</t>
         </is>
       </c>
-      <c r="L5" s="2" t="inlineStr">
+      <c r="L5" s="4" t="inlineStr">
         <is>
           <t>Medium</t>
         </is>
       </c>
-      <c r="M5" s="2" t="inlineStr">
+      <c r="M5" s="4" t="inlineStr">
         <is>
           <t>Electricity and Magnetism</t>
         </is>
@@ -1504,13 +7442,16 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12.5703125" bestFit="1" customWidth="1" min="16" max="16"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -1573,14 +7514,24 @@
           <t>level</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>subcategory</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
+      <c r="M1" s="2" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="inlineStr">
         <is>
           <t>Comment</t>
+        </is>
+      </c>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>PYQ-Year</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="inlineStr">
+        <is>
+          <t>Resource Link</t>
         </is>
       </c>
     </row>
